--- a/generate_menu_items/test_data.xlsx
+++ b/generate_menu_items/test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Asian Vegetable Salad</t>
+          <t>Quinoa Pork Noodles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>568</v>
+        <v>793</v>
       </c>
       <c r="F2" t="n">
-        <v>96</v>
+        <v>661</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -589,52 +589,52 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +648,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Healthy Cheese Wrap</t>
+          <t>Mexican Vegetable Wrap</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -657,66 +657,66 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>746</v>
+        <v>876</v>
       </c>
       <c r="F3" t="n">
-        <v>47</v>
+        <v>800</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -730,7 +730,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Zesty Chicken Bowl</t>
+          <t>BBQ Cheese Bowl</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -739,45 +739,45 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="F4" t="n">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -812,23 +812,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Healthy Fish Salad</t>
+          <t>Light Tofu Noodles</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>843</v>
+        <v>317</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -894,7 +894,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Quinoa Vegetable Sandwich</t>
+          <t>Light Cheese Bowl</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -903,51 +903,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>921</v>
+        <v>182</v>
       </c>
       <c r="F6" t="n">
-        <v>859</v>
+        <v>620</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -976,7 +976,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Spicy Beef Bowl</t>
+          <t>Quinoa Jackfruit Noodles</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="F7" t="n">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -996,55 +996,55 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1058,75 +1058,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BBQ Jackfruit Bowl</t>
+          <t>Mexican Beef Salad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>923</v>
+        <v>797</v>
       </c>
       <c r="F8" t="n">
-        <v>999</v>
+        <v>402</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1140,27 +1140,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BBQ Vegetable Bowl</t>
+          <t>Asian Cheese Salad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>735</v>
+        <v>498</v>
       </c>
       <c r="F9" t="n">
-        <v>112</v>
+        <v>512</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1175,16 +1175,16 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zesty Jackfruit Sandwich</t>
+          <t>Light Beef Wrap</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>298</v>
+        <v>489</v>
       </c>
       <c r="F10" t="n">
-        <v>408</v>
+        <v>276</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1248,31 +1248,31 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Healthy Pork Salad</t>
+          <t>Light Beef Sandwich</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1313,14 +1313,14 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="F11" t="n">
-        <v>531</v>
+        <v>50</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1333,19 +1333,19 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1366,13 +1366,13 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1386,45 +1386,45 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mexican Vegetable Salad</t>
+          <t>Asian Fish Bowl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="F12" t="n">
-        <v>182</v>
+        <v>860</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1468,19 +1468,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BBQ Fish Salad</t>
+          <t>Asian Chicken Wrap</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>232</v>
+        <v>527</v>
       </c>
       <c r="F13" t="n">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1500,40 +1500,40 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>2</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Spicy Beef Wrap</t>
+          <t>BBQ Fish Wrap</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1559,39 +1559,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>592</v>
+        <v>260</v>
       </c>
       <c r="F14" t="n">
-        <v>586</v>
+        <v>61</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1600,25 +1600,25 @@
         <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1632,19 +1632,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Quinoa Beef Wrap</t>
+          <t>BBQ Beef Bowl</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>278</v>
+        <v>581</v>
       </c>
       <c r="F15" t="n">
-        <v>728</v>
+        <v>944</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
@@ -1679,28 +1679,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1714,19 +1714,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Light Chicken Bowl</t>
+          <t>Quinoa Cheese Salad</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>830</v>
+        <v>287</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1743,46 +1743,46 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1796,19 +1796,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mexican Fish Salad</t>
+          <t>Asian Chicken Bowl</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="F17" t="n">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1837,31 +1837,31 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -1878,23 +1878,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Spicy Jackfruit Sandwich</t>
+          <t>Light Beef Sandwich</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="F18" t="n">
-        <v>986</v>
+        <v>146</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1960,19 +1960,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mexican Beef Salad</t>
+          <t>BBQ Vegetable Noodles</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="F19" t="n">
-        <v>969</v>
+        <v>341</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1983,22 +1983,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2007,25 +2007,25 @@
         <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
         <v>1</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Healthy Tofu Sandwich</t>
+          <t>Mexican Beef Sandwich</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2051,10 +2051,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>659</v>
+        <v>590</v>
       </c>
       <c r="F20" t="n">
-        <v>892</v>
+        <v>564</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2065,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Healthy Pork Bowl</t>
+          <t>Light Cheese Noodles</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>737</v>
       </c>
       <c r="F21" t="n">
-        <v>965</v>
+        <v>267</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2150,19 +2150,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2171,28 +2171,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Zesty Chicken Wrap</t>
+          <t>Spicy Beef Sandwich</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2215,36 +2215,36 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>670</v>
+        <v>522</v>
       </c>
       <c r="F22" t="n">
-        <v>558</v>
+        <v>511</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -2253,28 +2253,28 @@
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2288,23 +2288,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mexican Falafel Noodles</t>
+          <t>Asian Beef Wrap</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>757</v>
+        <v>973</v>
       </c>
       <c r="F23" t="n">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2314,37 +2314,37 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
@@ -2353,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2370,19 +2370,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Spicy Tofu Wrap</t>
+          <t>Light Beef Wrap</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F24" t="n">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2390,19 +2390,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2411,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mexican Tofu Sandwich</t>
+          <t>Quinoa Pork Salad</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2461,14 +2461,14 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>437</v>
+        <v>546</v>
       </c>
       <c r="F25" t="n">
-        <v>520</v>
+        <v>757</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2478,49 +2478,49 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Zesty Cheese Bowl</t>
+          <t>BBQ Chicken Noodles</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="F26" t="n">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
@@ -2578,16 +2578,16 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2596,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quinoa Chicken Noodles</t>
+          <t>Spicy Jackfruit Bowl</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>778</v>
+        <v>140</v>
       </c>
       <c r="F27" t="n">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2642,43 +2642,43 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>2</v>
@@ -2698,19 +2698,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Light Beef Salad</t>
+          <t>BBQ Beef Noodles</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>750</v>
+        <v>558</v>
       </c>
       <c r="F28" t="n">
-        <v>52</v>
+        <v>684</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2742,31 +2742,31 @@
         <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Healthy Falafel Bowl</t>
+          <t>Quinoa Cheese Bowl</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2789,63 +2789,63 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>786</v>
+        <v>596</v>
       </c>
       <c r="F29" t="n">
-        <v>613</v>
+        <v>686</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>1</v>
@@ -2862,19 +2862,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Healthy Falafel Noodles</t>
+          <t>BBQ Falafel Bowl</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>242</v>
+        <v>712</v>
       </c>
       <c r="F30" t="n">
-        <v>607</v>
+        <v>404</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2897,34 +2897,34 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>2</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BBQ Chicken Bowl</t>
+          <t>Spicy Falafel Sandwich</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2953,39 +2953,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>452</v>
+        <v>913</v>
       </c>
       <c r="F31" t="n">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>1</v>
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Asian Vegetable Noodles</t>
+          <t>Healthy Chicken Wrap</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>909</v>
+        <v>944</v>
       </c>
       <c r="F32" t="n">
-        <v>423</v>
+        <v>86</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3046,55 +3046,55 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Light Tofu Salad</t>
+          <t>BBQ Fish Bowl</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="F33" t="n">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
         <v>2</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>2</v>
@@ -3190,30 +3190,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BBQ Vegetable Salad</t>
+          <t>Mexican Chicken Noodles</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>599</v>
+        <v>373</v>
       </c>
       <c r="F34" t="n">
-        <v>379</v>
+        <v>862</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -3225,16 +3225,16 @@
         <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>2</v>
@@ -3243,13 +3243,13 @@
         <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -3272,33 +3272,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BBQ Tofu Noodles</t>
+          <t>Light Fish Bowl</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>399</v>
+        <v>289</v>
       </c>
       <c r="F35" t="n">
-        <v>944</v>
+        <v>802</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -3307,37 +3307,37 @@
         <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
         <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zesty Vegetable Noodles</t>
+          <t>Light Vegetable Sandwich</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3363,66 +3363,66 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>502</v>
+        <v>240</v>
       </c>
       <c r="F36" t="n">
-        <v>662</v>
+        <v>31</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3436,19 +3436,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Quinoa Jackfruit Wrap</t>
+          <t>Spicy Chicken Noodles</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>497</v>
+        <v>924</v>
       </c>
       <c r="F37" t="n">
-        <v>599</v>
+        <v>855</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3456,10 +3456,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,40 +3471,40 @@
         <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Spicy Chicken Bowl</t>
+          <t>Asian Fish Noodles</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3527,21 +3527,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="F38" t="n">
-        <v>815</v>
+        <v>183</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3550,43 +3550,43 @@
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,19 +3600,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Light Chicken Wrap</t>
+          <t>Light Jackfruit Wrap</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="F39" t="n">
-        <v>790</v>
+        <v>321</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3623,52 +3623,52 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3682,72 +3682,72 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mexican Jackfruit Noodles</t>
+          <t>Mexican Chicken Noodles</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>462</v>
+        <v>228</v>
       </c>
       <c r="F40" t="n">
-        <v>122</v>
+        <v>705</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
         <v>1</v>
@@ -3764,23 +3764,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Asian Vegetable Salad</t>
+          <t>Mexican Beef Salad</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F41" t="n">
-        <v>835</v>
+        <v>508</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3796,22 +3796,22 @@
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>2</v>
@@ -3820,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Quinoa Chicken Wrap</t>
+          <t>Zesty Tofu Salad</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3855,48 +3855,48 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>535</v>
+        <v>94</v>
       </c>
       <c r="F42" t="n">
-        <v>483</v>
+        <v>258</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3905,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3928,23 +3928,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Zesty Tofu Wrap</t>
+          <t>Zesty Beef Wrap</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>87</v>
+        <v>707</v>
       </c>
       <c r="F43" t="n">
-        <v>780</v>
+        <v>525</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3954,37 +3954,37 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>2</v>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
         <v>2</v>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Spicy Beef Wrap</t>
+          <t>Zesty Falafel Wrap</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4019,66 +4019,66 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>572</v>
+        <v>42</v>
       </c>
       <c r="F44" t="n">
-        <v>323</v>
+        <v>784</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Light Vegetable Wrap</t>
+          <t>Mexican Jackfruit Noodles</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4101,14 +4101,14 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>565</v>
       </c>
       <c r="F45" t="n">
-        <v>287</v>
+        <v>788</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4118,40 +4118,40 @@
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
         <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -4174,69 +4174,69 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BBQ Fish Sandwich</t>
+          <t>Zesty Tofu Bowl</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>298</v>
+        <v>626</v>
       </c>
       <c r="F46" t="n">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Light Jackfruit Bowl</t>
+          <t>Light Beef Noodles</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4265,10 +4265,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>641</v>
+        <v>103</v>
       </c>
       <c r="F47" t="n">
-        <v>121</v>
+        <v>517</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4279,52 +4279,52 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Spicy Chicken Sandwich</t>
+          <t>Spicy Chicken Wrap</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4347,18 +4347,18 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>542</v>
+        <v>344</v>
       </c>
       <c r="F48" t="n">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4367,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
@@ -4379,34 +4379,34 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4420,23 +4420,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mexican Falafel Salad</t>
+          <t>BBQ Beef Wrap</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="F49" t="n">
-        <v>747</v>
+        <v>269</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4446,49 +4446,49 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Healthy Beef Noodles</t>
+          <t>BBQ Pork Noodles</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4511,18 +4511,18 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>823</v>
       </c>
       <c r="F50" t="n">
-        <v>887</v>
+        <v>925</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4531,22 +4531,22 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4558,19 +4558,19 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4584,33 +4584,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Quinoa Pork Sandwich</t>
+          <t>Mexican Jackfruit Wrap</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>519</v>
+        <v>99</v>
       </c>
       <c r="F51" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -4631,25 +4631,25 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
         <v>2</v>
@@ -4666,57 +4666,57 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BBQ Cheese Sandwich</t>
+          <t>Quinoa Beef Bowl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>287</v>
+        <v>701</v>
       </c>
       <c r="F52" t="n">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
         <v>1</v>
@@ -4725,16 +4725,16 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4748,19 +4748,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Spicy Beef Sandwich</t>
+          <t>Mexican Falafel Wrap</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>871</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>115</v>
+        <v>914</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -4792,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
@@ -4804,19 +4804,19 @@
         <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
       <c r="X53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4830,30 +4830,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Healthy Tofu Salad</t>
+          <t>BBQ Cheese Wrap</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="F54" t="n">
-        <v>827</v>
+        <v>919</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -4868,19 +4868,19 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4889,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4912,23 +4912,23 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Spicy Beef Wrap</t>
+          <t>Light Pork Sandwich</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>94</v>
+        <v>630</v>
       </c>
       <c r="F55" t="n">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -4941,31 +4941,31 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>2</v>
@@ -4994,33 +4994,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Spicy Pork Wrap</t>
+          <t>Spicy Chicken Sandwich</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>110</v>
+        <v>959</v>
       </c>
       <c r="F56" t="n">
-        <v>547</v>
+        <v>310</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5029,40 +5029,40 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Light Jackfruit Sandwich</t>
+          <t>BBQ Fish Wrap</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5085,42 +5085,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>786</v>
+        <v>239</v>
       </c>
       <c r="F57" t="n">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -5132,13 +5132,13 @@
         <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5158,19 +5158,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Light Jackfruit Sandwich</t>
+          <t>BBQ Chicken Sandwich</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>367</v>
+        <v>530</v>
       </c>
       <c r="F58" t="n">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5178,49 +5178,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Spicy Fish Salad</t>
+          <t>Spicy Chicken Salad</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5249,10 +5249,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>965</v>
+        <v>442</v>
       </c>
       <c r="F59" t="n">
-        <v>36</v>
+        <v>352</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5263,52 +5263,52 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
         <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
         <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Quinoa Tofu Noodles</t>
+          <t>BBQ Beef Salad</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>431</v>
+        <v>225</v>
       </c>
       <c r="F60" t="n">
-        <v>216</v>
+        <v>957</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5342,19 +5342,19 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -5363,34 +5363,34 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
         <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
         <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mexican Cheese Salad</t>
+          <t>Spicy Vegetable Sandwich</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5413,27 +5413,27 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="F61" t="n">
-        <v>488</v>
+        <v>887</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5448,31 +5448,31 @@
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>2</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5486,19 +5486,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mexican Chicken Sandwich</t>
+          <t>Zesty Falafel Sandwich</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>505</v>
+        <v>814</v>
       </c>
       <c r="F62" t="n">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5509,40 +5509,40 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
         <v>2</v>
@@ -5551,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="W62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -5568,72 +5568,72 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Light Fish Salad</t>
+          <t>BBQ Vegetable Noodles</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F63" t="n">
-        <v>839</v>
+        <v>758</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>2</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BBQ Tofu Salad</t>
+          <t>BBQ Pork Sandwich</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5659,36 +5659,36 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>597</v>
+        <v>872</v>
       </c>
       <c r="F64" t="n">
-        <v>377</v>
+        <v>14</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5697,28 +5697,28 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Healthy Vegetable Wrap</t>
+          <t>Mexican Beef Salad</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5741,63 +5741,63 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>517</v>
+        <v>132</v>
       </c>
       <c r="F65" t="n">
-        <v>675</v>
+        <v>742</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -5814,42 +5814,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Asian Beef Noodles</t>
+          <t>Zesty Jackfruit Noodles</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>779</v>
+        <v>137</v>
       </c>
       <c r="F66" t="n">
-        <v>988</v>
+        <v>772</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
         <v>2</v>
@@ -5858,31 +5858,31 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
         <v>2</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mexican Jackfruit Wrap</t>
+          <t>BBQ Tofu Salad</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5905,10 +5905,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F67" t="n">
-        <v>930</v>
+        <v>236</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5916,43 +5916,43 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
         <v>1</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Asian Chicken Wrap</t>
+          <t>Asian Cheese Bowl</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5987,18 +5987,18 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>594</v>
+        <v>187</v>
       </c>
       <c r="F68" t="n">
-        <v>491</v>
+        <v>898</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>2</v>
@@ -6025,28 +6025,28 @@
         <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mexican Falafel Sandwich</t>
+          <t>BBQ Chicken Sandwich</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6069,24 +6069,24 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>369</v>
+        <v>97</v>
       </c>
       <c r="F69" t="n">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
@@ -6098,28 +6098,28 @@
         <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -6142,19 +6142,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Asian Jackfruit Wrap</t>
+          <t>Light Jackfruit Sandwich</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>544</v>
+        <v>263</v>
       </c>
       <c r="F70" t="n">
-        <v>958</v>
+        <v>727</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -6174,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>2</v>
@@ -6186,25 +6186,25 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W70" t="n">
         <v>2</v>
@@ -6224,19 +6224,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BBQ Cheese Wrap</t>
+          <t>Asian Chicken Salad</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>708</v>
+        <v>999</v>
       </c>
       <c r="F71" t="n">
-        <v>42</v>
+        <v>890</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6244,16 +6244,16 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -6262,37 +6262,37 @@
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
         <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
         <v>2</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BBQ Beef Sandwich</t>
+          <t>Mexican Tofu Bowl</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6315,14 +6315,14 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>658</v>
+        <v>410</v>
       </c>
       <c r="F72" t="n">
-        <v>632</v>
+        <v>212</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6332,16 +6332,16 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
         <v>1</v>
@@ -6350,31 +6350,31 @@
         <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BBQ Cheese Salad</t>
+          <t>Mexican Chicken Sandwich</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6397,24 +6397,24 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>202</v>
+        <v>885</v>
       </c>
       <c r="F73" t="n">
-        <v>425</v>
+        <v>969</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -6423,31 +6423,31 @@
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Healthy Beef Wrap</t>
+          <t>Mexican Chicken Sandwich</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="F74" t="n">
-        <v>874</v>
+        <v>739</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6496,46 +6496,46 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
         <v>2</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
         <v>2</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>2</v>
@@ -6552,23 +6552,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Light Chicken Wrap</t>
+          <t>Spicy Beef Sandwich</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>685</v>
+        <v>30</v>
       </c>
       <c r="F75" t="n">
-        <v>520</v>
+        <v>76</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6581,22 +6581,22 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -6605,22 +6605,22 @@
         <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V75" t="n">
         <v>2</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Spicy Beef Sandwich</t>
+          <t>Zesty Chicken Bowl</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6643,18 +6643,18 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>976</v>
+        <v>595</v>
       </c>
       <c r="F76" t="n">
-        <v>938</v>
+        <v>154</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6672,37 +6672,37 @@
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Quinoa Falafel Wrap</t>
+          <t>Spicy Beef Noodles</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6725,27 +6725,27 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>973</v>
+        <v>940</v>
       </c>
       <c r="F77" t="n">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -6769,10 +6769,10 @@
         <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Light Vegetable Noodles</t>
+          <t>Mexican Fish Salad</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6807,14 +6807,14 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>221</v>
+        <v>995</v>
       </c>
       <c r="F78" t="n">
-        <v>651</v>
+        <v>565</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -6842,28 +6842,28 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
         <v>1</v>
@@ -6880,45 +6880,45 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mexican Falafel Salad</t>
+          <t>BBQ Beef Salad</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="F79" t="n">
-        <v>222</v>
+        <v>638</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6927,28 +6927,28 @@
         <v>2</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
       </c>
       <c r="W79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Quinoa Tofu Noodles</t>
+          <t>Mexican Beef Noodles</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6971,24 +6971,24 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="F80" t="n">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -7000,31 +7000,31 @@
         <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W80" t="n">
         <v>2</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Light Fish Salad</t>
+          <t>Mexican Cheese Noodles</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -7053,18 +7053,18 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>847</v>
+        <v>512</v>
       </c>
       <c r="F81" t="n">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -7082,37 +7082,37 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Spicy Vegetable Noodles</t>
+          <t>Healthy Beef Wrap</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -7135,14 +7135,14 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>522</v>
+        <v>377</v>
       </c>
       <c r="F82" t="n">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -7164,37 +7164,37 @@
         <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
         <v>2</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BBQ Beef Sandwich</t>
+          <t>Asian Vegetable Bowl</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7217,24 +7217,24 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>436</v>
+        <v>744</v>
       </c>
       <c r="F83" t="n">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -7243,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
         <v>1</v>
@@ -7252,31 +7252,31 @@
         <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S83" t="n">
         <v>2</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W83" t="n">
         <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Quinoa Pork Bowl</t>
+          <t>Quinoa Falafel Salad</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7299,21 +7299,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="F84" t="n">
-        <v>974</v>
+        <v>447</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7340,25 +7340,25 @@
         <v>1</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
         <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U84" t="n">
         <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7372,45 +7372,45 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mexican Vegetable Bowl</t>
+          <t>BBQ Jackfruit Noodles</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>422</v>
+        <v>538</v>
       </c>
       <c r="F85" t="n">
-        <v>320</v>
+        <v>673</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O85" t="n">
         <v>2</v>
@@ -7422,25 +7422,25 @@
         <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -7454,19 +7454,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Healthy Vegetable Noodles</t>
+          <t>Asian Chicken Bowl</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>592</v>
+        <v>365</v>
       </c>
       <c r="F86" t="n">
-        <v>242</v>
+        <v>414</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7483,43 +7483,43 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T86" t="n">
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
       </c>
       <c r="W86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Light Cheese Bowl</t>
+          <t>Healthy Fish Sandwich</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="F87" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -7556,55 +7556,55 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
         <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W87" t="n">
         <v>1</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Light Beef Wrap</t>
+          <t>Light Beef Sandwich</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7627,10 +7627,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>625</v>
+        <v>936</v>
       </c>
       <c r="F88" t="n">
-        <v>388</v>
+        <v>169</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -7650,43 +7650,43 @@
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V88" t="n">
         <v>2</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Asian Beef Bowl</t>
+          <t>Asian Chicken Wrap</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -7709,24 +7709,24 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>598</v>
+        <v>744</v>
       </c>
       <c r="F89" t="n">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>spinach, tomato, basil</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
@@ -7741,34 +7741,34 @@
         <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Zesty Beef Bowl</t>
+          <t>Healthy Beef Sandwich</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7791,14 +7791,14 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>575</v>
+        <v>223</v>
       </c>
       <c r="F90" t="n">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -7808,31 +7808,31 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
         <v>2</v>
@@ -7841,16 +7841,16 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Zesty Beef Bowl</t>
+          <t>Quinoa Chicken Bowl</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7873,24 +7873,24 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>989</v>
+        <v>418</v>
       </c>
       <c r="F91" t="n">
-        <v>882</v>
+        <v>345</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -7899,40 +7899,40 @@
         <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
         <v>1</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Asian Chicken Sandwich</t>
+          <t>Quinoa Beef Bowl</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7955,48 +7955,48 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>462</v>
+        <v>169</v>
       </c>
       <c r="F92" t="n">
-        <v>771</v>
+        <v>387</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>1</v>
@@ -8005,16 +8005,16 @@
         <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W92" t="n">
         <v>1</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -8028,27 +8028,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Zesty Falafel Wrap</t>
+          <t>Asian Cheese Bowl</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>991</v>
+        <v>260</v>
       </c>
       <c r="F93" t="n">
-        <v>811</v>
+        <v>645</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -8060,40 +8060,40 @@
         <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
         <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
         <v>2</v>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Spicy Jackfruit Noodles</t>
+          <t>Zesty Beef Bowl</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8119,24 +8119,24 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>672</v>
+        <v>117</v>
       </c>
       <c r="F94" t="n">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>celery, onion, garlic</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
         <v>2</v>
@@ -8157,22 +8157,22 @@
         <v>2</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8192,27 +8192,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Light Chicken Noodles</t>
+          <t>Healthy Pork Noodles</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>discontinued</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>301</v>
+        <v>976</v>
       </c>
       <c r="F95" t="n">
-        <v>849</v>
+        <v>558</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -8242,25 +8242,25 @@
         <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" t="n">
         <v>2</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
         <v>1</v>
       </c>
       <c r="X95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -8274,19 +8274,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Spicy Tofu Bowl</t>
+          <t>BBQ Tofu Sandwich</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>304</v>
+        <v>792</v>
       </c>
       <c r="F96" t="n">
-        <v>418</v>
+        <v>976</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -8294,28 +8294,28 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -8324,25 +8324,25 @@
         <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96" t="n">
         <v>1</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -8365,30 +8365,30 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>171</v>
+        <v>953</v>
       </c>
       <c r="F97" t="n">
-        <v>494</v>
+        <v>904</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>potato, carrot, peas</t>
+          <t>spinach, tomato, basil</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -8397,16 +8397,16 @@
         <v>2</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
         <v>1</v>
@@ -8438,19 +8438,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BBQ Cheese Bowl</t>
+          <t>Spicy Jackfruit Sandwich</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>633</v>
+        <v>326</v>
       </c>
       <c r="F98" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -8458,55 +8458,55 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>1</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -8520,27 +8520,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Spicy Chicken Sandwich</t>
+          <t>Mexican Vegetable Salad</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>discontinued</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>483</v>
+        <v>607</v>
       </c>
       <c r="F99" t="n">
-        <v>759</v>
+        <v>587</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>celery, onion, garlic</t>
+          <t>potato, carrot, peas</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8552,28 +8552,28 @@
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
         <v>2</v>
       </c>
       <c r="P99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         <v>1</v>
       </c>
       <c r="V99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Quinoa Chicken Noodles</t>
+          <t>Zesty Jackfruit Sandwich</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -8611,10 +8611,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>990</v>
+        <v>374</v>
       </c>
       <c r="F100" t="n">
-        <v>226</v>
+        <v>710</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -8622,52 +8622,52 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
         <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -8684,75 +8684,895 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Asian Beef Noodles</t>
+          <t>Asian Vegetable Noodles</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>655</v>
+      </c>
+      <c r="F101" t="n">
+        <v>593</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>celery, onion, garlic</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R0101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Quinoa Falafel Bowl</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>381</v>
+      </c>
+      <c r="F102" t="n">
+        <v>402</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>potato, carrot, peas</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R0102</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BBQ Beef Sandwich</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>905</v>
+      </c>
+      <c r="F103" t="n">
+        <v>927</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>celery, onion, garlic</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R0103</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Spicy Pork Salad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>17</v>
-      </c>
-      <c r="F101" t="n">
-        <v>81</v>
-      </c>
-      <c r="G101" t="inlineStr">
+      <c r="E104" t="n">
+        <v>79</v>
+      </c>
+      <c r="F104" t="n">
+        <v>16</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>spinach, tomato, basil</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R0104</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Healthy Falafel Sandwich</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>165</v>
+      </c>
+      <c r="F105" t="n">
+        <v>553</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>spinach, tomato, basil</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R0105</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Light Jackfruit Sandwich</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>344</v>
+      </c>
+      <c r="F106" t="n">
+        <v>483</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>potato, carrot, peas</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" t="n">
-        <v>2</v>
-      </c>
-      <c r="P101" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>1</v>
-      </c>
-      <c r="R101" t="n">
-        <v>2</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1</v>
-      </c>
-      <c r="U101" t="n">
-        <v>0</v>
-      </c>
-      <c r="V101" t="n">
-        <v>0</v>
-      </c>
-      <c r="W101" t="n">
-        <v>1</v>
-      </c>
-      <c r="X101" t="n">
-        <v>2</v>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2</v>
+      </c>
+      <c r="W106" t="n">
+        <v>2</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R0106</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Light Vegetable Salad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>511</v>
+      </c>
+      <c r="F107" t="n">
+        <v>510</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>celery, onion, garlic</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1</v>
+      </c>
+      <c r="W107" t="n">
+        <v>2</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R0107</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Spicy Chicken Salad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>542</v>
+      </c>
+      <c r="F108" t="n">
+        <v>814</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>celery, onion, garlic</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1</v>
+      </c>
+      <c r="W108" t="n">
+        <v>2</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R0108</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Zesty Tofu Bowl</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>519</v>
+      </c>
+      <c r="F109" t="n">
+        <v>286</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>celery, onion, garlic</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>R0109</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Healthy Vegetable Sandwich</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>346</v>
+      </c>
+      <c r="F110" t="n">
+        <v>515</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>potato, carrot, peas</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>2</v>
+      </c>
+      <c r="X110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R0110</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>12345</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Light Beef Sandwich</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>discontinued</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>693</v>
+      </c>
+      <c r="F111" t="n">
+        <v>686</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>spinach, tomato, basil</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2</v>
+      </c>
+      <c r="W111" t="n">
+        <v>2</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
